--- a/src/test/resources/testScriptData.xlsx
+++ b/src/test/resources/testScriptData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20377"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{ED131D2F-25D8-49EC-8C75-5C246829BF83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E34C6137-9AB5-4F14-B891-DEB33A7BDBE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19470" windowHeight="5895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14985" windowHeight="5895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeadsModule" sheetId="1" r:id="rId1"/>
@@ -103,43 +103,43 @@
     <t>Tl_22</t>
   </si>
   <si>
+    <t>closeDate</t>
+  </si>
+  <si>
+    <t>2021/09/05</t>
+  </si>
+  <si>
+    <t>expectedOrgTitle</t>
+  </si>
+  <si>
+    <t>Organizations</t>
+  </si>
+  <si>
+    <t>Tl_23</t>
+  </si>
+  <si>
+    <t>ConvertLeadToOpertunitiesBySelectingAllCheckboxes</t>
+  </si>
+  <si>
+    <t>ConvertLeadToOpertunitiesBySelectingOnlyOrgCheckbox</t>
+  </si>
+  <si>
+    <t>Contact should be selected to transfer related records</t>
+  </si>
+  <si>
+    <t>expectedAlertText</t>
+  </si>
+  <si>
+    <t>Tl_24</t>
+  </si>
+  <si>
+    <t>ConvertLeadToOpertunitiesBySelectingOnlyOpportunityCheckbox</t>
+  </si>
+  <si>
+    <t>Select either Organization or Contact to convert the lead</t>
+  </si>
+  <si>
     <t>Administrator</t>
-  </si>
-  <si>
-    <t>closeDate</t>
-  </si>
-  <si>
-    <t>2021/09/05</t>
-  </si>
-  <si>
-    <t>expectedOrgTitle</t>
-  </si>
-  <si>
-    <t>Organizations</t>
-  </si>
-  <si>
-    <t>Tl_23</t>
-  </si>
-  <si>
-    <t>ConvertLeadToOpertunitiesBySelectingAllCheckboxes</t>
-  </si>
-  <si>
-    <t>ConvertLeadToOpertunitiesBySelectingOnlyOrgCheckbox</t>
-  </si>
-  <si>
-    <t>Contact should be selected to transfer related records</t>
-  </si>
-  <si>
-    <t>expectedAlertText</t>
-  </si>
-  <si>
-    <t>Tl_24</t>
-  </si>
-  <si>
-    <t>ConvertLeadToOpertunitiesBySelectingOnlyOpportunityCheckbox</t>
-  </si>
-  <si>
-    <t>Select either Organization or Contact to convert the lead</t>
   </si>
 </sst>
 </file>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +579,7 @@
         <v>24</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="9"/>
@@ -712,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>2</v>
@@ -727,7 +727,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
@@ -739,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="9"/>
@@ -764,7 +764,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>2</v>
@@ -773,10 +773,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
@@ -788,7 +788,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="9"/>
@@ -810,10 +810,10 @@
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>2</v>
@@ -821,10 +821,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>20</v>
@@ -836,10 +836,10 @@
         <v>5</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17" s="3"/>
     </row>
